--- a/ex0407/ex0407.xlsx
+++ b/ex0407/ex0407.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A11:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,10 +421,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
-          <t>bbbb</t>
+          <t>123123</t>
         </is>
       </c>
     </row>
